--- a/biology/Médecine/Christos_Christou/Christos_Christou.xlsx
+++ b/biology/Médecine/Christos_Christou/Christos_Christou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christos Christou est un médecin grec, président international de Médecins sans frontières (MSF)[1],[2]. Il est né à Trikala, en Grèce[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christos Christou est un médecin grec, président international de Médecins sans frontières (MSF),. Il est né à Trikala, en Grèce.
 Christou est originaire de Grèce où il étudie la médecine avant de travailler comme médecin au Royaume-Uni. Il rejoint Médecin Sans Frontière et travaille comme chirurgien au Cameroun, en Irak et au Soudan du Sud avant d'être élu vice-président, puis président de MSF Grèce. Il succède plus tard à Joanne Liu en tant que président international de MSF international.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Parcours scolaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christou est titulaire d'un diplôme en médecine de l'Université Aristote, d'un doctorat en chirurgie de l'Université nationale et de Kapodistrian et d'une maîtrise en santé internationale et gestion des crises sanitaires de l'Université d'Athènes[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christou est titulaire d'un diplôme en médecine de l'Université Aristote, d'un doctorat en chirurgie de l'Université nationale et de Kapodistrian et d'une maîtrise en santé internationale et gestion des crises sanitaires de l'Université d'Athènes,.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant que spécialiste de la chirurgie d'urgence, Christou travaille d'abord au North Middlesex University Hospital et au King's College Hospital de Londres, au Royaume-Uni[5].
-Il rejoint MSF en 2002 en tant que chirurgien bénévole[4], travaillant auprès des personnes réfugiées et ainsi que sur le VIH au Cameroun, en Irak et au Soudan du Sud[5]. Il est d'abord secrétaire général, puis comme vice-président avant d'être élu président de MSF Grèce en 2005[5].
-Christou est élu président international de Médecin Sans Frontière en juin 2019[4]. Plus tard en 2019, il écrit une lettre ouverte aux dirigeants de l’Union européenne leur demandant de mettre fin à leur politique consistant à arrêter le voyage des demandeurs d’asile dans les îles grecques[6].
-En 2020, répondant à une lettre ouverte du personnel de MSF sur le racisme institutionnel, il salue la critique, mais remet également en question l'ampleur du racisme au sein de MSF[7],[8],[9]. De plus, il critique les gouvernements pour ne pas avoir mis en place des plans de santé efficaces au début de la pandémie de coronavirus, en particulier dans les pays à faible revenu[10].
-En 2021, Christou parle de l'importance de lutter contre le changement climatique, critique les sociétés pharmaceutiques pour leur refus de partager la propriété intellectuelle des vaccins COVID-19 et parle des besoins humanitaires croissants en Afghanistan[3].
-En 2021, il critique la gestion de la pandémie de COVID-19 par le président brésilien Jair Bolsonaro[11],[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que spécialiste de la chirurgie d'urgence, Christou travaille d'abord au North Middlesex University Hospital et au King's College Hospital de Londres, au Royaume-Uni.
+Il rejoint MSF en 2002 en tant que chirurgien bénévole, travaillant auprès des personnes réfugiées et ainsi que sur le VIH au Cameroun, en Irak et au Soudan du Sud. Il est d'abord secrétaire général, puis comme vice-président avant d'être élu président de MSF Grèce en 2005.
+Christou est élu président international de Médecin Sans Frontière en juin 2019. Plus tard en 2019, il écrit une lettre ouverte aux dirigeants de l’Union européenne leur demandant de mettre fin à leur politique consistant à arrêter le voyage des demandeurs d’asile dans les îles grecques.
+En 2020, répondant à une lettre ouverte du personnel de MSF sur le racisme institutionnel, il salue la critique, mais remet également en question l'ampleur du racisme au sein de MSF. De plus, il critique les gouvernements pour ne pas avoir mis en place des plans de santé efficaces au début de la pandémie de coronavirus, en particulier dans les pays à faible revenu.
+En 2021, Christou parle de l'importance de lutter contre le changement climatique, critique les sociétés pharmaceutiques pour leur refus de partager la propriété intellectuelle des vaccins COVID-19 et parle des besoins humanitaires croissants en Afghanistan.
+En 2021, il critique la gestion de la pandémie de COVID-19 par le président brésilien Jair Bolsonaro,.
 </t>
         </is>
       </c>
